--- a/hutbazarManualTesting.xlsx
+++ b/hutbazarManualTesting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Manual-Testing-Projects\ManualTesting of Hutbazar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Manual-Testing-Projects\Manual-Testing-Of-Hutbazar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="226">
   <si>
     <t>Product Name</t>
   </si>
@@ -177,12 +177,6 @@
       <t xml:space="preserve"> ) 
 </t>
     </r>
-  </si>
-  <si>
-    <t>Logo should be clickable and taken to the Home page</t>
-  </si>
-  <si>
-    <t>Logo has been clickable and taken to the Home page</t>
   </si>
   <si>
     <t>TC_003</t>
@@ -410,6 +404,10 @@
       <t xml:space="preserve"> ) 
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on the search button
+</t>
   </si>
   <si>
     <t>search : HearT</t>
@@ -879,50 +877,7 @@
         <sz val="12"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">1. Go to the link ( </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>https://hutbazar.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> click on the 'add button '</t>
-  </si>
-  <si>
-    <t>View Cart button should be seen on the front like modal or pop up</t>
-  </si>
-  <si>
-    <t>The view cart button is not visible in the foreground. The cart button was stuck in the nav bar.</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>addcart.mp4</t>
-  </si>
-  <si>
-    <t>Check success message is displayed or not when a product is added to the cart successfully</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">1. Go to the link ( </t>
+      <t xml:space="preserve">Go to the link ( </t>
     </r>
     <r>
       <rPr>
@@ -945,7 +900,47 @@
     <t>click on the 'add button '</t>
   </si>
   <si>
-    <t>success message should be viewed on the front after adding the product to the cart.</t>
+    <t>View Cart button should be seen on the front like modal or pop up</t>
+  </si>
+  <si>
+    <t>The view cart button is not visible in the foreground. The cart button was stuck in the nav bar.</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>addTocart.mp4</t>
+  </si>
+  <si>
+    <t>Check success message is displayed or not when a product is added to the cart successfully</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <t>Success message should be viewed on the front after adding the product to the cart.</t>
   </si>
   <si>
     <t>There was no success message on the front after adding the product to the cart.
@@ -960,7 +955,7 @@
         <sz val="12"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">1. Go to the link ( </t>
+      <t xml:space="preserve">Go to the link ( </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +975,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> click on the product details button </t>
+    <t xml:space="preserve">click on the product details button </t>
   </si>
   <si>
     <t>Cart button should be displayed on the product display page</t>
@@ -1000,7 +995,7 @@
         <sz val="12"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">1. Go to the link ( </t>
+      <t xml:space="preserve">Go to the link ( </t>
     </r>
     <r>
       <rPr>
@@ -1020,16 +1015,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> click on the add button </t>
+    <t xml:space="preserve">click on the add button </t>
   </si>
   <si>
-    <t>user should add the product to their shopping cart.</t>
+    <t>User should add the product to their shopping cart.</t>
   </si>
   <si>
-    <t>user can add the product to their shopping cart.</t>
+    <t>User can add the product to their shopping cart.</t>
   </si>
   <si>
-    <t>verify whether the 'view-cart' button is clickable or not and by default checked the checkout</t>
+    <t>Verify whether the 'view-cart' button is clickable or not and by default checked the checkout</t>
   </si>
   <si>
     <r>
@@ -1037,7 +1032,7 @@
         <sz val="12"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">1. Go to the link ( </t>
+      <t xml:space="preserve">Go to the link ( </t>
     </r>
     <r>
       <rPr>
@@ -1062,10 +1057,35 @@
 3. click on the view cart button</t>
   </si>
   <si>
+    <t xml:space="preserve">View cart should be clickable </t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify whether the quantity of the product increases when Adding multiple items to the cart </t>
   </si>
   <si>
-    <t>1. Go to the link ( https://hutbazar.com )</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
   </si>
   <si>
     <t>1. click on the product details button
@@ -1073,22 +1093,72 @@
 3. click on the view cart button</t>
   </si>
   <si>
-    <t>product quantity should be increased after adding products</t>
+    <t>Product quantity should be increased after adding products</t>
   </si>
   <si>
-    <t>product quantity was increased after adding products</t>
+    <t>Product quantity was increased after adding products</t>
   </si>
   <si>
     <t>Check whether the total price is added when the product is added to the cart</t>
   </si>
   <si>
-    <t>product price should be increased after adding products</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
   </si>
   <si>
-    <t>product price was increased after adding products</t>
+    <t>Product price should be increased after adding products</t>
+  </si>
+  <si>
+    <t>Product price was increased after adding products</t>
   </si>
   <si>
     <t>Verify whether the total price reduces when the product is removed from the cart with confirmation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
   </si>
   <si>
     <t>1. click on the product details button
@@ -1097,10 +1167,10 @@
 4. remove the products</t>
   </si>
   <si>
-    <t>product price should be removed after removing products</t>
+    <t>Product price should be removed after removing products</t>
   </si>
   <si>
-    <t>product price  removed after removing products</t>
+    <t>Product price  removed after removing products</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1110,18 +1180,71 @@
     <t>Verify warning message when the product is removed  from the cart with a undo option</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
     <t>1. click on the add button 
 2. click on the view cart button
 3. remove the products</t>
   </si>
   <si>
-    <t>a warning message should be seen and displayed a undo button</t>
+    <t>A warning message should be seen and displayed a undo button</t>
   </si>
   <si>
-    <t>a warning message seen and displayed a undo button</t>
+    <t>A warning message seen and displayed a undo button</t>
   </si>
   <si>
     <t>Check whether the '+' and '-' button is seen on the view cart page and with the add item</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> click on the add button </t>
   </si>
   <si>
     <t xml:space="preserve"> '+' and '-' button should be seen with the add item and view cart</t>
@@ -1130,7 +1253,32 @@
     <t xml:space="preserve"> '+' and '-' button  seen with the add item and view cart</t>
   </si>
   <si>
-    <t>verify whether the '+' and '-' button is clickable on the view cart page and with the add item</t>
+    <t>Verify whether the '+' and '-' button is clickable on the view cart page and with the add item</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
   </si>
   <si>
     <t>1. click on details button
@@ -1144,7 +1292,32 @@
     <t xml:space="preserve"> '+' and '-' button  was cilckable with the add item and view cart</t>
   </si>
   <si>
-    <t>verify whether update cart button is clickable on the view cart page</t>
+    <t>Verify whether update cart button is clickable on the view cart page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
   </si>
   <si>
     <t>1. click on details button
@@ -1153,13 +1326,38 @@
 4. click on the 'update cart'</t>
   </si>
   <si>
-    <t>update button should be clickable and update the car with modified item</t>
+    <t>Update button should be clickable and update the car with modified item</t>
   </si>
   <si>
-    <t>update button was clickable and update the car with modified item</t>
+    <t>Update button was clickable and update the car with modified item</t>
   </si>
   <si>
-    <t>verify whether '+' , and '-' option is available after update cart button</t>
+    <t>Verify whether '+' , and '-' option is available after update cart button</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
   </si>
   <si>
     <t>1. click on the product details button
@@ -1180,7 +1378,29 @@
     <t>Check the add to cart related product suggestion is seen or not after adding a item to the cart</t>
   </si>
   <si>
-    <t xml:space="preserve">click on the add button </t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
   </si>
   <si>
     <t>should be displayed related product suggestion after add a item to the cart</t>
@@ -1190,6 +1410,31 @@
   </si>
   <si>
     <t>Check whether the cart becomes empty when the user clicks on the '-' button when only a single product is present in the shopping cart</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
   </si>
   <si>
     <t>1. click on the add to cart button
@@ -1208,6 +1453,31 @@
     <t>Check whether unregistered users can update Calculate shipping address</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
     <t>1. click on the add to cart button
 2. click on the cart button
 3. click on the view cart
@@ -1224,6 +1494,31 @@
     <t>Verify the input box and 'Apply coupon' size in the 'Have A Promotional Code?' section</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Go to the link ( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://hutbazar.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">1. click on the add to cart button
 2. click on the cart button
 3. click on the view cart
@@ -1236,11 +1531,7 @@
     <t>input box and apply coupon button are not equal size</t>
   </si>
   <si>
-    <t xml:space="preserve">view cart should be clickable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the search button
-</t>
+    <t>couponBox.PNG</t>
   </si>
   <si>
     <t>1. Click on the image
@@ -1250,11 +1541,13 @@
     <t xml:space="preserve">Check the hover function on the cards </t>
   </si>
   <si>
-    <t>1. Click on the product image
-2. Inspect the email box and button measure the size</t>
+    <t>Inspect the page measure the alignment and check position</t>
   </si>
   <si>
-    <t>Inspect the page measure the alignment and check position</t>
+    <t>logo should be clickable and taken to the Home page</t>
+  </si>
+  <si>
+    <t>logo has been clickable and taken to the Home page</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d\-yyyy"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1404,6 +1697,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1768,6 +2066,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1777,19 +2078,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1798,7 +2096,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1807,16 +2105,16 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2450,10 +2748,10 @@
         <v>30</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>33</v>
@@ -2480,34 +2778,34 @@
     </row>
     <row r="12" spans="1:27" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="D12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="E12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="F12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="G12" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="H12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="I12" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="J12" s="32" t="s">
         <v>46</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
@@ -2529,25 +2827,25 @@
     </row>
     <row r="13" spans="1:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="D13" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="E13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="F13" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="G13" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="35" t="s">
         <v>33</v>
@@ -2574,25 +2872,25 @@
     </row>
     <row r="14" spans="1:27" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="E14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="F14" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="G14" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>62</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>33</v>
@@ -2619,34 +2917,34 @@
     </row>
     <row r="15" spans="1:27" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="D15" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="E15" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="F15" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="G15" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="H15" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
@@ -2668,25 +2966,25 @@
     </row>
     <row r="16" spans="1:27" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="E16" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="F16" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="G16" s="28" t="s">
         <v>75</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>33</v>
@@ -2713,16 +3011,16 @@
     </row>
     <row r="17" spans="1:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>79</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>80</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>30</v>
@@ -2758,34 +3056,34 @@
     </row>
     <row r="18" spans="1:27" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>83</v>
-      </c>
       <c r="D18" s="20" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="H18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="21" t="s">
+      <c r="J18" s="39" t="s">
         <v>86</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>87</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
@@ -2807,16 +3105,16 @@
     </row>
     <row r="19" spans="1:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>90</v>
-      </c>
       <c r="D19" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>30</v>
@@ -2852,34 +3150,34 @@
     </row>
     <row r="20" spans="1:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="D20" s="20" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>85</v>
-      </c>
       <c r="H20" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
@@ -2901,34 +3199,34 @@
     </row>
     <row r="21" spans="1:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="D21" s="20" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="H21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="41" t="s">
+      <c r="J21" s="32" t="s">
         <v>101</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>102</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -2950,16 +3248,16 @@
     </row>
     <row r="22" spans="1:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="D22" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>30</v>
@@ -2995,34 +3293,34 @@
     </row>
     <row r="23" spans="1:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>108</v>
-      </c>
       <c r="D23" s="20" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -3044,16 +3342,16 @@
     </row>
     <row r="24" spans="1:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>113</v>
-      </c>
       <c r="D24" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>30</v>
@@ -3089,34 +3387,34 @@
     </row>
     <row r="25" spans="1:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>116</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -3138,16 +3436,16 @@
     </row>
     <row r="26" spans="1:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>120</v>
-      </c>
       <c r="D26" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>30</v>
@@ -3183,34 +3481,34 @@
     </row>
     <row r="27" spans="1:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>123</v>
-      </c>
       <c r="D27" s="20" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="H27" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="41" t="s">
+      <c r="J27" s="32" t="s">
         <v>126</v>
-      </c>
-      <c r="J27" s="32" t="s">
-        <v>127</v>
       </c>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -3232,34 +3530,34 @@
     </row>
     <row r="28" spans="1:27" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>130</v>
-      </c>
       <c r="D28" s="20" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>132</v>
-      </c>
       <c r="H28" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -31650,8 +31948,7 @@
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
@@ -31701,7 +31998,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>7</v>
@@ -31977,31 +32274,31 @@
         <v>26</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="D10" s="28" t="s">
         <v>136</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>137</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="H10" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="I10" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="I10" s="66" t="s">
-        <v>141</v>
-      </c>
       <c r="J10" s="67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K10" s="68"/>
       <c r="L10" s="68"/>
@@ -32021,36 +32318,36 @@
       <c r="Z10" s="68"/>
       <c r="AA10" s="69"/>
     </row>
-    <row r="11" spans="1:27" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="64" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>143</v>
-      </c>
       <c r="D11" s="28" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H11" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="66" t="s">
-        <v>141</v>
-      </c>
       <c r="J11" s="67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K11" s="68"/>
       <c r="L11" s="68"/>
@@ -32072,31 +32369,31 @@
     </row>
     <row r="12" spans="1:27" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>152</v>
-      </c>
       <c r="I12" s="68"/>
-      <c r="J12" s="71"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="68"/>
       <c r="L12" s="68"/>
       <c r="M12" s="68"/>
@@ -32117,31 +32414,31 @@
     </row>
     <row r="13" spans="1:27" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
-      <c r="H13" s="70" t="s">
-        <v>152</v>
+      <c r="H13" s="71" t="s">
+        <v>150</v>
       </c>
       <c r="I13" s="68"/>
-      <c r="J13" s="71"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="68"/>
       <c r="L13" s="68"/>
       <c r="M13" s="68"/>
@@ -32161,32 +32458,32 @@
       <c r="AA13" s="69"/>
     </row>
     <row r="14" spans="1:27" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="72" t="s">
-        <v>56</v>
+      <c r="A14" s="73" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
-      <c r="H14" s="70" t="s">
-        <v>152</v>
+      <c r="H14" s="71" t="s">
+        <v>150</v>
       </c>
       <c r="I14" s="68"/>
-      <c r="J14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="68"/>
       <c r="L14" s="68"/>
       <c r="M14" s="68"/>
@@ -32206,32 +32503,32 @@
       <c r="AA14" s="69"/>
     </row>
     <row r="15" spans="1:27" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
-        <v>63</v>
+      <c r="A15" s="73" t="s">
+        <v>61</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="D15" s="28" t="s">
         <v>162</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>163</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>152</v>
+      <c r="H15" s="71" t="s">
+        <v>150</v>
       </c>
       <c r="I15" s="68"/>
-      <c r="J15" s="71"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="68"/>
       <c r="L15" s="68"/>
       <c r="M15" s="68"/>
@@ -32251,17 +32548,17 @@
       <c r="AA15" s="69"/>
     </row>
     <row r="16" spans="1:27" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72" t="s">
-        <v>71</v>
+      <c r="A16" s="73" t="s">
+        <v>69</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D16" s="28" t="s">
         <v>162</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>163</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>30</v>
@@ -32273,7 +32570,7 @@
         <v>168</v>
       </c>
       <c r="H16" s="74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="76"/>
@@ -32296,33 +32593,33 @@
       <c r="AA16" s="69"/>
     </row>
     <row r="17" spans="1:27" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
-        <v>77</v>
+      <c r="A17" s="73" t="s">
+        <v>76</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>162</v>
+      <c r="C17" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H17" s="74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I17" s="68"/>
       <c r="J17" s="78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K17" s="68"/>
       <c r="L17" s="68"/>
@@ -32343,32 +32640,32 @@
       <c r="AA17" s="69"/>
     </row>
     <row r="18" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
-        <v>81</v>
+      <c r="A18" s="73" t="s">
+        <v>80</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>162</v>
+      <c r="C18" s="34" t="s">
+        <v>176</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="71" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="68"/>
-      <c r="J18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="68"/>
       <c r="L18" s="68"/>
       <c r="M18" s="68"/>
@@ -32388,32 +32685,32 @@
       <c r="AA18" s="69"/>
     </row>
     <row r="19" spans="1:27" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="72" t="s">
-        <v>88</v>
+      <c r="A19" s="73" t="s">
+        <v>87</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>162</v>
+      <c r="C19" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="71" t="s">
         <v>33</v>
       </c>
       <c r="I19" s="68"/>
-      <c r="J19" s="71"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="68"/>
       <c r="L19" s="68"/>
       <c r="M19" s="68"/>
@@ -32434,31 +32731,31 @@
     </row>
     <row r="20" spans="1:27" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>162</v>
+      <c r="C20" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="71" t="s">
         <v>33</v>
       </c>
       <c r="I20" s="68"/>
-      <c r="J20" s="71"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="68"/>
       <c r="L20" s="68"/>
       <c r="M20" s="68"/>
@@ -32479,31 +32776,31 @@
     </row>
     <row r="21" spans="1:27" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>162</v>
+      <c r="C21" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="71" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="68"/>
-      <c r="J21" s="71"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
       <c r="M21" s="68"/>
@@ -32524,34 +32821,34 @@
     </row>
     <row r="22" spans="1:27" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>162</v>
+      <c r="C22" s="34" t="s">
+        <v>196</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H22" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I22" s="80" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J22" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" s="68"/>
       <c r="L22" s="68"/>
@@ -32572,35 +32869,35 @@
       <c r="AA22" s="69"/>
     </row>
     <row r="23" spans="1:27" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="72" t="s">
-        <v>106</v>
+      <c r="A23" s="73" t="s">
+        <v>105</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>162</v>
+      <c r="C23" s="34" t="s">
+        <v>202</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H23" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="I23" s="80" t="s">
-        <v>141</v>
-      </c>
       <c r="J23" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K23" s="68"/>
       <c r="L23" s="68"/>
@@ -32620,29 +32917,29 @@
       <c r="Z23" s="68"/>
       <c r="AA23" s="69"/>
     </row>
-    <row r="24" spans="1:27" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="72" t="s">
-        <v>111</v>
+    <row r="24" spans="1:27" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="73" t="s">
+        <v>110</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>162</v>
+      <c r="C24" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="71" t="s">
         <v>33</v>
       </c>
       <c r="I24" s="68"/>
@@ -32666,35 +32963,35 @@
       <c r="AA24" s="69"/>
     </row>
     <row r="25" spans="1:27" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="72" t="s">
-        <v>114</v>
+      <c r="A25" s="73" t="s">
+        <v>113</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>162</v>
+      <c r="C25" s="34" t="s">
+        <v>211</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H25" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="83" t="s">
-        <v>141</v>
-      </c>
       <c r="J25" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" s="68"/>
       <c r="L25" s="68"/>
@@ -32716,34 +33013,34 @@
     </row>
     <row r="26" spans="1:27" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>162</v>
+      <c r="C26" s="34" t="s">
+        <v>216</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I26" s="83" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="J26" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K26" s="68"/>
       <c r="L26" s="68"/>
@@ -32764,7 +33061,7 @@
       <c r="AA26" s="69"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
       <c r="D27" s="75"/>
@@ -61136,14 +61433,26 @@
     <hyperlink ref="C12" r:id="rId7"/>
     <hyperlink ref="C13" r:id="rId8"/>
     <hyperlink ref="C14" r:id="rId9"/>
-    <hyperlink ref="I22" r:id="rId10"/>
-    <hyperlink ref="J22" r:id="rId11" location="gid=184428487&amp;range=4:4"/>
-    <hyperlink ref="I23" r:id="rId12"/>
-    <hyperlink ref="J23" r:id="rId13" location="gid=184428487&amp;range=5:5"/>
-    <hyperlink ref="I25" r:id="rId14"/>
-    <hyperlink ref="J25" r:id="rId15" location="gid=184428487&amp;range=6:6"/>
-    <hyperlink ref="I26" r:id="rId16"/>
-    <hyperlink ref="J26" r:id="rId17" location="gid=184428487&amp;range=7:7"/>
+    <hyperlink ref="C15" r:id="rId10"/>
+    <hyperlink ref="C16" r:id="rId11"/>
+    <hyperlink ref="C17" r:id="rId12"/>
+    <hyperlink ref="C18" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="C20" r:id="rId15"/>
+    <hyperlink ref="C21" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="I22" r:id="rId18"/>
+    <hyperlink ref="J22" r:id="rId19" location="gid=184428487&amp;range=4:4"/>
+    <hyperlink ref="C23" r:id="rId20"/>
+    <hyperlink ref="I23" r:id="rId21"/>
+    <hyperlink ref="J23" r:id="rId22" location="gid=184428487&amp;range=5:5"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="I25" r:id="rId25"/>
+    <hyperlink ref="J25" r:id="rId26" location="gid=184428487&amp;range=6:6"/>
+    <hyperlink ref="C26" r:id="rId27"/>
+    <hyperlink ref="I26" r:id="rId28"/>
+    <hyperlink ref="J26" r:id="rId29" location="gid=184428487&amp;range=7:7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
